--- a/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,19 +52,19 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
@@ -73,18 +73,18 @@
     <t>low</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,123 +94,117 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>love</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
@@ -220,33 +214,24 @@
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>online</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>buy</t>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
@@ -256,16 +241,16 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>supermarket</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
   <si>
     <t>food</t>
@@ -632,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,7 +628,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -701,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -719,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -743,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -751,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
@@ -825,13 +810,13 @@
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9545454545454546</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -875,13 +860,13 @@
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.9152542372881356</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -975,13 +960,13 @@
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8888888888888888</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -993,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1001,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5128205128205128</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1043,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1051,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3728813559322034</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1069,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8482142857142857</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L10">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3725490196078431</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.84375</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1143,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1151,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3682170542635659</v>
+        <v>0.3779069767441861</v>
       </c>
       <c r="C12">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D12">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8203125</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.348993288590604</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.8170731707317073</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3376623376623377</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K14">
-        <v>0.8085106382978723</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1293,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C15">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K15">
-        <v>0.8055555555555556</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1343,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1351,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7833333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,37 +1386,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2444444444444444</v>
+        <v>0.2405063291139241</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1443,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1451,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1984126984126984</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7547169811320755</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L18">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1206434316353887</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7535211267605634</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L19">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="M19">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1536,13 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7407407407407407</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1562,13 @@
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.7301587301587301</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1595,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1588,13 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>0.725</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1614,13 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>0.7058823529411765</v>
+        <v>0.7125</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>114</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1647,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1681,13 +1666,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>0.6511627906976745</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1699,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1707,13 +1692,13 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>0.6458333333333334</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1725,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1733,13 +1718,13 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>0.6388888888888888</v>
+        <v>0.6266318537859008</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1751,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1759,13 +1744,13 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>0.6176470588235294</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1777,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1785,13 +1770,13 @@
         <v>52</v>
       </c>
       <c r="K29">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1803,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1811,13 +1796,13 @@
         <v>53</v>
       </c>
       <c r="K30">
-        <v>0.6057441253263708</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L30">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="M30">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1829,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1837,13 +1822,13 @@
         <v>54</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1855,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1863,13 +1848,13 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>0.58</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1881,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1889,13 +1874,13 @@
         <v>56</v>
       </c>
       <c r="K33">
-        <v>0.5794117647058824</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L33">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="M33">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1907,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1915,13 +1900,13 @@
         <v>57</v>
       </c>
       <c r="K34">
-        <v>0.575</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M34">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1933,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1941,13 +1926,13 @@
         <v>58</v>
       </c>
       <c r="K35">
-        <v>0.5457627118644067</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="L35">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1959,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>134</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1967,13 +1952,13 @@
         <v>59</v>
       </c>
       <c r="K36">
-        <v>0.5280898876404494</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L36">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M36">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1985,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1993,13 +1978,13 @@
         <v>60</v>
       </c>
       <c r="K37">
-        <v>0.525</v>
+        <v>0.4853556485355648</v>
       </c>
       <c r="L37">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2011,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2019,7 +2004,7 @@
         <v>61</v>
       </c>
       <c r="K38">
-        <v>0.5230769230769231</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L38">
         <v>34</v>
@@ -2037,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2045,13 +2030,13 @@
         <v>62</v>
       </c>
       <c r="K39">
-        <v>0.4931506849315068</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L39">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2063,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2071,13 +2056,13 @@
         <v>63</v>
       </c>
       <c r="K40">
-        <v>0.4853556485355648</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L40">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>116</v>
+        <v>35</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2089,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2097,13 +2082,13 @@
         <v>64</v>
       </c>
       <c r="K41">
-        <v>0.4523809523809524</v>
+        <v>0.4375</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2115,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2123,13 +2108,13 @@
         <v>65</v>
       </c>
       <c r="K42">
-        <v>0.4358974358974359</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2141,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2149,13 +2134,13 @@
         <v>66</v>
       </c>
       <c r="K43">
-        <v>0.40625</v>
+        <v>0.1526717557251908</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2167,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2175,13 +2160,13 @@
         <v>67</v>
       </c>
       <c r="K44">
-        <v>0.3428571428571429</v>
+        <v>0.1435406698564593</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2193,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2201,13 +2186,13 @@
         <v>68</v>
       </c>
       <c r="K45">
-        <v>0.2916666666666667</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2219,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>51</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2227,25 +2212,25 @@
         <v>69</v>
       </c>
       <c r="K46">
-        <v>0.1923076923076923</v>
+        <v>0.1177884615384615</v>
       </c>
       <c r="L46">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>105</v>
+        <v>367</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2253,13 +2238,13 @@
         <v>70</v>
       </c>
       <c r="K47">
-        <v>0.1272727272727273</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2271,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>144</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2279,13 +2264,13 @@
         <v>71</v>
       </c>
       <c r="K48">
-        <v>0.1172248803827751</v>
+        <v>0.09843400447427293</v>
       </c>
       <c r="L48">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="M48">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2297,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>369</v>
+        <v>806</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2305,13 +2290,13 @@
         <v>72</v>
       </c>
       <c r="K49">
-        <v>0.1165644171779141</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2323,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>144</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2331,13 +2316,13 @@
         <v>73</v>
       </c>
       <c r="K50">
-        <v>0.1162790697674419</v>
+        <v>0.0764525993883792</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2349,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>152</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2357,25 +2342,25 @@
         <v>74</v>
       </c>
       <c r="K51">
-        <v>0.09619686800894854</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="L51">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="M51">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>808</v>
+        <v>843</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2383,13 +2368,13 @@
         <v>75</v>
       </c>
       <c r="K52">
-        <v>0.09302325581395349</v>
+        <v>0.04732510288065844</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2401,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>195</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2409,25 +2394,25 @@
         <v>76</v>
       </c>
       <c r="K53">
-        <v>0.0889423076923077</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="L53">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>379</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2435,25 +2420,25 @@
         <v>77</v>
       </c>
       <c r="K54">
-        <v>0.08878504672897196</v>
+        <v>0.03838951310861423</v>
       </c>
       <c r="L54">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="N54">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O54">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>195</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2461,25 +2446,25 @@
         <v>78</v>
       </c>
       <c r="K55">
-        <v>0.06727828746177369</v>
+        <v>0.03464203233256351</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>305</v>
+        <v>836</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2487,25 +2472,25 @@
         <v>79</v>
       </c>
       <c r="K56">
-        <v>0.06437291897891231</v>
+        <v>0.02481902792140641</v>
       </c>
       <c r="L56">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>843</v>
+        <v>943</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2513,25 +2498,25 @@
         <v>80</v>
       </c>
       <c r="K57">
-        <v>0.05420991926182238</v>
+        <v>0.02033570045190445</v>
       </c>
       <c r="L57">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="M57">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>820</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2539,155 +2524,25 @@
         <v>81</v>
       </c>
       <c r="K58">
-        <v>0.05401234567901234</v>
+        <v>0.0106516290726817</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M58">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0.21</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K59">
-        <v>0.04938271604938271</v>
-      </c>
-      <c r="L59">
-        <v>24</v>
-      </c>
-      <c r="M59">
-        <v>24</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K60">
-        <v>0.03932584269662921</v>
-      </c>
-      <c r="L60">
-        <v>84</v>
-      </c>
-      <c r="M60">
-        <v>91</v>
-      </c>
-      <c r="N60">
-        <v>0.92</v>
-      </c>
-      <c r="O60">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="61" spans="10:17">
-      <c r="J61" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K61">
-        <v>0.02182952182952183</v>
-      </c>
-      <c r="L61">
-        <v>21</v>
-      </c>
-      <c r="M61">
-        <v>27</v>
-      </c>
-      <c r="N61">
-        <v>0.78</v>
-      </c>
-      <c r="O61">
-        <v>0.22</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="62" spans="10:17">
-      <c r="J62" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K62">
-        <v>0.02033570045190445</v>
-      </c>
-      <c r="L62">
-        <v>63</v>
-      </c>
-      <c r="M62">
-        <v>72</v>
-      </c>
-      <c r="N62">
-        <v>0.88</v>
-      </c>
-      <c r="O62">
-        <v>0.12</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="63" spans="10:17">
-      <c r="J63" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K63">
-        <v>0.01066499372647428</v>
-      </c>
-      <c r="L63">
-        <v>34</v>
-      </c>
-      <c r="M63">
-        <v>47</v>
-      </c>
-      <c r="N63">
-        <v>0.72</v>
-      </c>
-      <c r="O63">
-        <v>0.28</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>3154</v>
+        <v>3158</v>
       </c>
     </row>
   </sheetData>
